--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -31,9 +31,15 @@
     <t>prefab</t>
   </si>
   <si>
+    <t>baseSpeed</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##comment</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
   </si>
   <si>
     <t>预制体</t>
+  </si>
+  <si>
+    <t>基础移速</t>
   </si>
   <si>
     <t>##default</t>
@@ -69,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,15 +91,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,26 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,102 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +256,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,19 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,115 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,24 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +461,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,138 +552,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1232,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1254,44 +1263,56 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:5">
@@ -1299,10 +1320,10 @@
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1310,10 +1331,10 @@
         <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
+    <workbookView windowHeight="18345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -89,6 +89,108 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -99,96 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +218,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,36 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,21 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,11 +491,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +516,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,9 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,137 +553,137 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1311,7 +1311,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
     </row>

--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18345" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,9 +91,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +132,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -112,6 +147,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,70 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -208,40 +224,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +256,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,55 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,18 +412,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,6 +424,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,72 +437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,21 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,9 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +496,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,13 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,138 +552,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/Config/Y_演员.xlsx
+++ b/Config/Y_演员.xlsx
@@ -64,7 +64,7 @@
     <t>玩家</t>
   </si>
   <si>
-    <t>Gamer</t>
+    <t>Gamer_Car</t>
   </si>
   <si>
     <t>地图格子</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,21 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,38 +126,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +173,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +201,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -217,8 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,22 +242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,169 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +486,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -509,15 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,138 +552,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
